--- a/server_version/set_dev1.xlsx
+++ b/server_version/set_dev1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>L</t>
   </si>
@@ -31,6 +31,9 @@
     <t>t</t>
   </si>
   <si>
+    <t>contbound</t>
+  </si>
+  <si>
     <t>fitness</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>precision</t>
   </si>
   <si>
+    <t>f1_score</t>
+  </si>
+  <si>
     <t>len frequent</t>
   </si>
   <si>
@@ -61,25 +67,22 @@
     <t>number of activities</t>
   </si>
   <si>
+    <t>activities</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>error</t>
   </si>
   <si>
-    <t>activities</t>
-  </si>
-  <si>
-    <t>contbound</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>ER Registration Leucocytes ER Triage Admission NC IV Liquid Release A LacticAcid CRP Return ER IV Antibiotics ER Sepsis Triage</t>
-  </si>
-  <si>
-    <t>ER Registration Leucocytes ER Triage Admission NC IV Liquid Release A LacticAcid Admission IC CRP Return ER IV Antibiotics ER Sepsis Triage</t>
+    <t>LacticAcid Admission NC ER Triage CRP Release A Return ER IV Liquid IV Antibiotics ER Sepsis Triage Leucocytes ER Registration</t>
+  </si>
+  <si>
+    <t>LacticAcid Admission NC ER Triage CRP Release A Return ER IV Liquid IV Antibiotics Admission IC ER Sepsis Triage Leucocytes ER Registration</t>
   </si>
 </sst>
 </file>
@@ -411,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +478,11 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,49 +496,52 @@
         <v>0.7</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>0.9888505480469973</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>80.95238095238095</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.2302572462837924</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>228</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>842</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>11</v>
       </c>
-      <c r="P2">
-        <v>2.926215171813965</v>
-      </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>4.166854619979858</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
@@ -546,46 +555,49 @@
         <v>0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>0.9933441217921293</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>89.42857142857143</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2182351972135932</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>111</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>842</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>12</v>
       </c>
-      <c r="P3">
-        <v>2.641934156417847</v>
-      </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2.899279356002808</v>
       </c>
     </row>
   </sheetData>
